--- a/en/downloads/data-excel/9.3.2.xlsx
+++ b/en/downloads/data-excel/9.3.2.xlsx
@@ -590,16 +590,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>12</v>
       </c>
@@ -620,7 +622,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
@@ -641,7 +643,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -656,7 +658,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -708,8 +710,11 @@
       <c r="Q4" s="13">
         <v>2021</v>
       </c>
+      <c r="R4" s="13">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
@@ -761,8 +766,11 @@
       <c r="Q5" s="20">
         <v>9.6829772570640937</v>
       </c>
+      <c r="R5" s="20">
+        <v>8.6821914120339212</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>13</v>
       </c>
@@ -813,6 +821,9 @@
       </c>
       <c r="Q6" s="21">
         <v>12.532637075718014</v>
+      </c>
+      <c r="R6" s="21">
+        <v>12.221423436376707</v>
       </c>
     </row>
   </sheetData>

--- a/en/downloads/data-excel/9.3.2.xlsx
+++ b/en/downloads/data-excel/9.3.2.xlsx
@@ -590,18 +590,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>12</v>
       </c>
@@ -622,7 +620,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
@@ -643,7 +641,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -658,7 +656,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -710,11 +708,8 @@
       <c r="Q4" s="13">
         <v>2021</v>
       </c>
-      <c r="R4" s="13">
-        <v>2022</v>
-      </c>
     </row>
-    <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
@@ -766,11 +761,8 @@
       <c r="Q5" s="20">
         <v>9.6829772570640937</v>
       </c>
-      <c r="R5" s="20">
-        <v>8.6821914120339212</v>
-      </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>13</v>
       </c>
@@ -821,9 +813,6 @@
       </c>
       <c r="Q6" s="21">
         <v>12.532637075718014</v>
-      </c>
-      <c r="R6" s="21">
-        <v>12.221423436376707</v>
       </c>
     </row>
   </sheetData>

--- a/en/downloads/data-excel/9.3.2.xlsx
+++ b/en/downloads/data-excel/9.3.2.xlsx
@@ -590,18 +590,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>12</v>
       </c>
@@ -622,7 +620,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
@@ -643,7 +641,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -658,7 +656,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -713,8 +711,11 @@
       <c r="R4" s="13">
         <v>2022</v>
       </c>
+      <c r="S4" s="13">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
@@ -769,8 +770,11 @@
       <c r="R5" s="20">
         <v>8.6821914120339212</v>
       </c>
+      <c r="S5" s="20">
+        <v>7.1262361838278068</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>13</v>
       </c>
@@ -824,6 +828,9 @@
       </c>
       <c r="R6" s="21">
         <v>12.221423436376707</v>
+      </c>
+      <c r="S6" s="21">
+        <v>10.974456007568591</v>
       </c>
     </row>
   </sheetData>
